--- a/6-from-vlookup-to-join/vlookup-vs-join.xlsx
+++ b/6-from-vlookup-to-join/vlookup-vs-join.xlsx
@@ -1,214 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\sql-for-excel-users\6-from-vlookup-to-join\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA3EA48-4783-42C6-A5CF-CB2535B99EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="demo-vlookup" sheetId="2" r:id="rId1"/>
-    <sheet name="loc" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="demo-sql" sheetId="4" r:id="rId3"/>
+    <sheet name="vlookup" sheetId="6" r:id="rId1"/>
+    <sheet name="tables" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+  <si>
+    <t>empno</t>
+  </si>
+  <si>
+    <t>ename</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>mgr</t>
+  </si>
+  <si>
+    <t>hiredate</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>conm</t>
+  </si>
+  <si>
+    <t>deptno</t>
+  </si>
+  <si>
+    <t>locno</t>
+  </si>
+  <si>
+    <t>dept_title</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>SCHRUTE</t>
+  </si>
+  <si>
+    <t>ASST TO REGINONAL MANAGER</t>
+  </si>
+  <si>
+    <t>HALPERT</t>
+  </si>
+  <si>
+    <t>SALESPERSON</t>
+  </si>
+  <si>
+    <t>BEESLY</t>
+  </si>
+  <si>
+    <t>SECRETARY</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>LEVINSON</t>
+  </si>
+  <si>
+    <t>VP SALES</t>
+  </si>
+  <si>
+    <t>HUDSON</t>
+  </si>
+  <si>
+    <t>MALONE</t>
+  </si>
+  <si>
+    <t>ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>PALMER</t>
+  </si>
+  <si>
+    <t>SUPPLIER RELATIONS REP</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>DIRECTOR ACCOUNTING</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>SENIOR ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>LAPIN</t>
+  </si>
+  <si>
+    <t>KAPOOR</t>
+  </si>
+  <si>
+    <t>CUSTOMER RELATIONS REP</t>
+  </si>
+  <si>
+    <t>FLENDERSON</t>
+  </si>
+  <si>
+    <t>HUMAN RESOURCES REP</t>
+  </si>
+  <si>
+    <t>FILIPPELLI</t>
+  </si>
+  <si>
+    <t>BRATTON</t>
+  </si>
+  <si>
+    <t>QUABITY ASSUWANCE</t>
+  </si>
+  <si>
+    <t>PHILBIN</t>
+  </si>
+  <si>
+    <t>FOREMAN</t>
+  </si>
+  <si>
+    <t>WALLACE</t>
+  </si>
+  <si>
+    <t>CHIEF FINANCIAL OFFICER</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>CHIEF EXECUTIVE OFFICER</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
   <si>
     <t>ACCOUNTING</t>
   </si>
   <si>
+    <t>CUSTOMER RELATIONS</t>
+  </si>
+  <si>
+    <t>HUMAN RESOURCES</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
+    <t>MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
     <t>SALES</t>
   </si>
   <si>
-    <t>OPERATIONS</t>
-  </si>
-  <si>
-    <t>deptno</t>
-  </si>
-  <si>
-    <t>locno</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>empno</t>
-  </si>
-  <si>
-    <t>ename</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>mgr</t>
-  </si>
-  <si>
-    <t>hiredate</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
-    <t>conm</t>
-  </si>
-  <si>
-    <t>NEW YORK</t>
-  </si>
-  <si>
-    <t>cty</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>SCHRUTE</t>
-  </si>
-  <si>
-    <t>HALPERT</t>
-  </si>
-  <si>
-    <t>BEESLY</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>BERNARD</t>
-  </si>
-  <si>
-    <t>LEVINSON</t>
-  </si>
-  <si>
-    <t>HUDSON</t>
-  </si>
-  <si>
-    <t>MALONE</t>
-  </si>
-  <si>
-    <t>PALMER</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>LAPIN</t>
-  </si>
-  <si>
-    <t>KAPOOR</t>
-  </si>
-  <si>
-    <t>FLENDERSON</t>
-  </si>
-  <si>
-    <t>FILIPPELLI</t>
-  </si>
-  <si>
-    <t>BRATTON</t>
-  </si>
-  <si>
-    <t>PHILBIN</t>
-  </si>
-  <si>
-    <t>WALLACE</t>
-  </si>
-  <si>
-    <t>ASST TO REGINONAL MANAGER</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
-    <t>SALESPERSON</t>
-  </si>
-  <si>
-    <t>VP SALES</t>
-  </si>
-  <si>
-    <t>ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>SUPPLIER RELATIONS REP</t>
-  </si>
-  <si>
-    <t>DIRECTOR ACCOUNTING</t>
-  </si>
-  <si>
-    <t>SENIOR ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>CUSTOMER RELATIONS REP</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>HUMAN RESOURCES REP</t>
-  </si>
-  <si>
-    <t>QUABITY ASSUWANCE</t>
-  </si>
-  <si>
-    <t>FOREMAN</t>
-  </si>
-  <si>
-    <t>SECRETARY</t>
-  </si>
-  <si>
-    <t>CHIEF FINANCIAL OFFICER</t>
-  </si>
-  <si>
-    <t>CHIEF EXECUTIVE OFFICER</t>
-  </si>
-  <si>
-    <t>dept_title</t>
-  </si>
-  <si>
-    <t>UTICA</t>
-  </si>
-  <si>
-    <t>SCRANTON</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>CLEVELAND</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>CUSTOMER RELATIONS</t>
-  </si>
-  <si>
-    <t>HUMAN RESOURCES</t>
-  </si>
-  <si>
-    <t>LOGISTICS</t>
-  </si>
-  <si>
-    <t>MANAGEMENT</t>
-  </si>
-  <si>
     <t>SUPPLIER RELATIONS</t>
   </si>
   <si>
@@ -216,15 +205,12 @@
   </si>
   <si>
     <t>ssn</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000\-00\-0000"/>
   </numFmts>
@@ -265,17 +251,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="20">
     <dxf>
       <numFmt numFmtId="164" formatCode="000\-00\-0000"/>
     </dxf>
@@ -309,8 +295,154 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+    <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+    </tableStyle>
+    <tableStyle name="Stringfest_Pivot" table="0" count="10" xr9:uid="{E4F46EAF-081F-4FE3-B38A-4D174B16E75D}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFD23338"/>
+      <color rgb="FFFB3338"/>
+      <color rgb="FF3D3935"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,7 +471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Content Placeholder 3" descr="Tape, Sticky Tape, Sticky, Office, Paper, Packing"/>
+        <xdr:cNvPr id="2" name="Content Placeholder 3" descr="Tape, Sticky Tape, Sticky, Office, Paper, Packing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27135414-4851-4D1B-83FB-97AC86D691A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noGrp="1" noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -381,8 +519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="emp" displayName="emp" ref="A1:J21" totalsRowShown="0">
-  <autoFilter ref="A1:J21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE6437FE-060E-4ED0-A8D8-848196DD616E}" name="emp" displayName="emp" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21" xr:uid="{DA4C021E-8F83-4B27-B7F8-51349EDC6817}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -395,61 +533,36 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="empno"/>
-    <tableColumn id="2" name="ename"/>
-    <tableColumn id="3" name="job"/>
-    <tableColumn id="4" name="mgr"/>
-    <tableColumn id="5" name="hiredate" dataDxfId="6"/>
-    <tableColumn id="6" name="sal"/>
-    <tableColumn id="7" name="conm"/>
-    <tableColumn id="8" name="deptno"/>
-    <tableColumn id="10" name="locno" dataDxfId="5"/>
-    <tableColumn id="11" name="dept_title" dataDxfId="4">
-      <calculatedColumnFormula>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{5B3B27C2-79D0-4F89-8085-DEB974EA20C2}" name="empno"/>
+    <tableColumn id="2" xr3:uid="{71C593C4-BC6B-43B0-AAC3-3416592A03DA}" name="ename"/>
+    <tableColumn id="3" xr3:uid="{21E4CCCF-3970-4D35-9C19-0E770D8F4C8C}" name="job"/>
+    <tableColumn id="4" xr3:uid="{503D285D-2B24-4F4D-9765-1B783ECA88C2}" name="mgr"/>
+    <tableColumn id="5" xr3:uid="{42C4C9D0-2928-4213-879F-AFCA1CB80B73}" name="hiredate" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{281F0633-E79A-409C-9A03-D72232B1EF50}" name="sal"/>
+    <tableColumn id="7" xr3:uid="{928C7904-2A17-41E0-8A29-A2897AA14D2C}" name="conm"/>
+    <tableColumn id="8" xr3:uid="{F7823D3C-8506-4794-B0B8-156838138D40}" name="deptno"/>
+    <tableColumn id="10" xr3:uid="{22B7FC0B-D048-4A15-82A8-72CF5CC88293}" name="locno" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{A984F170-9AD8-44DB-86CF-57F5CBE173EF}" name="dept_title" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="dept" displayName="dept" ref="L1:N10" totalsRowShown="0">
-  <autoFilter ref="L1:N10">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F307C94B-7459-4DEF-9CD8-24AE4862BD25}" name="dept" displayName="dept" ref="L1:N10" totalsRowShown="0">
+  <autoFilter ref="L1:N10" xr:uid="{9C606A33-055A-404D-8A17-69CCD4AB77E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="deptno"/>
-    <tableColumn id="2" name="dept_title"/>
-    <tableColumn id="3" name="Column1" dataDxfId="3">
-      <calculatedColumnFormula>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{E0B637CA-0540-4CF4-90F5-C7A4F39D63AD}" name="deptno"/>
+    <tableColumn id="2" xr3:uid="{544655D3-93B6-44E7-A3A9-45DB7F6F93B7}" name="dept_title"/>
+    <tableColumn id="3" xr3:uid="{1517F8F9-0B4D-40EA-8A39-3607A17188AC}" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="loc" displayName="loc" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" name="locno"/>
-    <tableColumn id="2" name="cty"/>
-    <tableColumn id="3" name="state"/>
-    <tableColumn id="4" name="zip"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="emp_7" displayName="emp_7" ref="A1:H21" totalsRowShown="0">
-  <autoFilter ref="A1:H21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AB6226B8-8434-4B71-8E9C-E19D7DA332F1}" name="emp_7" displayName="emp_7" ref="A1:H21" totalsRowShown="0">
+  <autoFilter ref="A1:H21" xr:uid="{04B74809-9151-4543-BBCF-2BEA6C23F141}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -460,42 +573,42 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="empno"/>
-    <tableColumn id="2" name="ename"/>
-    <tableColumn id="3" name="job"/>
-    <tableColumn id="4" name="mgr"/>
-    <tableColumn id="5" name="hiredate" dataDxfId="2"/>
-    <tableColumn id="6" name="sal"/>
-    <tableColumn id="8" name="deptno"/>
-    <tableColumn id="10" name="locno" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F0E2E407-A8FA-46A4-BF41-0321ADB26211}" name="empno"/>
+    <tableColumn id="2" xr3:uid="{16B25A95-3164-441B-94B2-AC4A34B53989}" name="ename"/>
+    <tableColumn id="3" xr3:uid="{D311E8B7-E8AE-4ED4-AAD8-506DCC9CC18B}" name="job"/>
+    <tableColumn id="4" xr3:uid="{41EC44B4-7989-4A3B-9BB6-ECD0E013FFBD}" name="mgr"/>
+    <tableColumn id="5" xr3:uid="{7A4F7A25-8C33-4739-BF99-1716E435FFD3}" name="hiredate" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B3BFFBFA-E2E2-4511-A191-A01B25C20B65}" name="sal"/>
+    <tableColumn id="8" xr3:uid="{F1759817-4D40-49D4-B418-B882E6160511}" name="deptno"/>
+    <tableColumn id="10" xr3:uid="{08D134A0-4157-45A8-8556-948222335C96}" name="locno" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AEA518D0-CEA4-4E93-B4EE-525C94DF173C}" name="dept8" displayName="dept8" ref="J1:K10" totalsRowShown="0">
+  <autoFilter ref="J1:K10" xr:uid="{B117E779-0DF1-4C02-A498-0423C6D58D9C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E85A171B-BBB3-491E-9829-1AEC5EA5CDCC}" name="deptno"/>
+    <tableColumn id="2" xr3:uid="{B7D1A853-8B90-47B4-B1EE-6E66BA8B3458}" name="dept_title"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="dept8" displayName="dept8" ref="J1:K10" totalsRowShown="0">
-  <autoFilter ref="J1:K10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A9EDE73B-7F8A-4B7F-A571-7FD7966FDE65}" name="Table8" displayName="Table8" ref="M1:N22" totalsRowShown="0">
+  <autoFilter ref="M1:N22" xr:uid="{F93BCF57-5F7F-4C51-9DF5-F67CC4576DFD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="deptno"/>
-    <tableColumn id="2" name="dept_title"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="M1:N22" totalsRowShown="0">
-  <autoFilter ref="M1:N22">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" name="empno"/>
-    <tableColumn id="2" name="ssn" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A4181CC9-8832-4693-A500-5F80783227FC}" name="empno"/>
+    <tableColumn id="2" xr3:uid="{BA2AAD59-61DA-402A-9233-E6E4BB2A59AB}" name="ssn" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,7 +617,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Stringfest">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -518,22 +631,22 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D93644"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="D97179"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2B3B9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="403C38"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="D8D8D8"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F2F2F2"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -577,6 +690,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -612,6 +742,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -763,81 +910,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9759</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9759</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>3710</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>34480</v>
       </c>
       <c r="F2">
@@ -846,38 +994,32 @@
       <c r="H2">
         <v>50</v>
       </c>
-      <c r="I2" s="2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>MANAGEMENT</v>
-      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="L2">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>MALONE</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5156</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>9759</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>36841</v>
       </c>
       <c r="F3">
@@ -886,38 +1028,32 @@
       <c r="H3">
         <v>80</v>
       </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>SALES</v>
-      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="L3">
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>KAPOOR</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9844</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>9759</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>36951</v>
       </c>
       <c r="F4">
@@ -926,38 +1062,32 @@
       <c r="H4">
         <v>80</v>
       </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>SALES</v>
-      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="L4">
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>FLENDERSON</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4965</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>9759</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>36720</v>
       </c>
       <c r="F5">
@@ -966,38 +1096,32 @@
       <c r="H5">
         <v>60</v>
       </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>OPERATIONS</v>
-      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="L5">
         <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>PHILBIN</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5262</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>9759</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>38435</v>
       </c>
       <c r="F6">
@@ -1006,38 +1130,32 @@
       <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>OPERATIONS</v>
-      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="L6">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>SCOTT</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1403</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>9759</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>37786</v>
       </c>
       <c r="F7">
@@ -1046,38 +1164,32 @@
       <c r="H7">
         <v>80</v>
       </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>SALES</v>
-      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3"/>
       <c r="L7">
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>BEESLY</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8215</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>2029</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>37437</v>
       </c>
       <c r="F8">
@@ -1086,38 +1198,32 @@
       <c r="H8">
         <v>50</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>MANAGEMENT</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="L8">
         <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>SCHRUTE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9735</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>9759</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>35929</v>
       </c>
       <c r="F9">
@@ -1126,38 +1232,32 @@
       <c r="H9">
         <v>80</v>
       </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>SALES</v>
-      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="L9">
         <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="4" t="str">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>PALMER</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7870</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>3304</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>36496</v>
       </c>
       <c r="F10">
@@ -1166,38 +1266,32 @@
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>ACCOUNTING</v>
-      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3"/>
       <c r="L10">
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="4" t="e">
-        <f>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4460</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="D11">
         <v>9759</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>35915</v>
       </c>
       <c r="F11">
@@ -1206,28 +1300,25 @@
       <c r="H11">
         <v>90</v>
       </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>SUPPLIER RELATIONS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3304</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>9759</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>35151</v>
       </c>
       <c r="F12">
@@ -1236,28 +1327,25 @@
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" s="2">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>ACCOUNTING</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6811</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>3304</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>36431</v>
       </c>
       <c r="F13">
@@ -1266,28 +1354,25 @@
       <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>ACCOUNTING</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9909</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>9759</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>33037</v>
       </c>
       <c r="F14">
@@ -1296,28 +1381,25 @@
       <c r="H14">
         <v>80</v>
       </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>SALES</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6395</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>9759</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>37276</v>
       </c>
       <c r="F15">
@@ -1326,28 +1408,25 @@
       <c r="H15">
         <v>20</v>
       </c>
-      <c r="I15" s="2">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>CUSTOMER RELATIONS</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4858</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>7852</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>34444</v>
       </c>
       <c r="F16">
@@ -1356,28 +1435,25 @@
       <c r="H16">
         <v>30</v>
       </c>
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>HUMAN RESOURCES</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8514</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>2029</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>37562</v>
       </c>
       <c r="F17">
@@ -1386,28 +1462,25 @@
       <c r="H17">
         <v>50</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>MANAGEMENT</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4518</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>9759</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>32704</v>
       </c>
       <c r="F18">
@@ -1416,28 +1489,25 @@
       <c r="H18">
         <v>70</v>
       </c>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
-      <c r="J18" s="4" t="e">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3891</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>9759</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>35693</v>
       </c>
       <c r="F19">
@@ -1446,28 +1516,25 @@
       <c r="H19">
         <v>40</v>
       </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>LOGISTICS</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2029</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>7852</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>36235</v>
       </c>
       <c r="F20">
@@ -1476,28 +1543,25 @@
       <c r="H20">
         <v>50</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>MANAGEMENT</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7852</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
       </c>
       <c r="D21">
         <v>7852</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>32132</v>
       </c>
       <c r="F21">
@@ -1506,13 +1570,10 @@
       <c r="H21">
         <v>50</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="4" t="str">
-        <f>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</f>
-        <v>MANAGEMENT</v>
-      </c>
+      <c r="J21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,172 +1586,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>10017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>13413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>18411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>44134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="H21" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9759</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9759</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>3710</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>34480</v>
       </c>
       <c r="F2">
@@ -1699,36 +1666,36 @@
       <c r="G2">
         <v>50</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>3</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="M2">
         <v>9759</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>440801399</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5156</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>9759</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>36841</v>
       </c>
       <c r="F3">
@@ -1737,36 +1704,36 @@
       <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>3</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M3">
         <v>5156</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <v>988281279</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9844</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>9759</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>36951</v>
       </c>
       <c r="F4">
@@ -1775,36 +1742,36 @@
       <c r="G4">
         <v>80</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M4">
         <v>9844</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <v>620053151</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4965</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>9759</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>36720</v>
       </c>
       <c r="F5">
@@ -1813,36 +1780,36 @@
       <c r="G5">
         <v>60</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="J5">
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <v>4965</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>430347111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5262</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>9759</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>38435</v>
       </c>
       <c r="F6">
@@ -1851,36 +1818,36 @@
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
       <c r="J6">
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>5262</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>415711652</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1403</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>9759</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>37786</v>
       </c>
       <c r="F7">
@@ -1889,36 +1856,36 @@
       <c r="G7">
         <v>80</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="J7">
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="M7">
         <v>1403</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="4">
         <v>448034029</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8215</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>2029</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>37437</v>
       </c>
       <c r="F8">
@@ -1927,36 +1894,36 @@
       <c r="G8">
         <v>50</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="J8">
         <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="M8">
         <v>8215</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>834016607</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9735</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>9759</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>35929</v>
       </c>
       <c r="F9">
@@ -1965,36 +1932,36 @@
       <c r="G9">
         <v>80</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>3</v>
       </c>
       <c r="J9">
         <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M9">
         <v>9735</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="4">
         <v>342477354</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7870</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>3304</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>36496</v>
       </c>
       <c r="F10">
@@ -2003,36 +1970,36 @@
       <c r="G10">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>3</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M10">
         <v>7870</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>863688610</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4460</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="D11">
         <v>9759</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>35915</v>
       </c>
       <c r="F11">
@@ -2041,30 +2008,30 @@
       <c r="G11">
         <v>90</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>3</v>
       </c>
       <c r="M11">
         <v>4460</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <v>277770447</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3304</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>9759</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>35151</v>
       </c>
       <c r="F12">
@@ -2073,30 +2040,30 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="M12">
         <v>3304</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <v>115952906</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6811</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>3304</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>36431</v>
       </c>
       <c r="F13">
@@ -2105,30 +2072,30 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>3</v>
       </c>
       <c r="M13">
         <v>6811</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="4">
         <v>544793154</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9909</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>9759</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>33037</v>
       </c>
       <c r="F14">
@@ -2137,30 +2104,30 @@
       <c r="G14">
         <v>80</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>3</v>
       </c>
       <c r="M14">
         <v>9909</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="4">
         <v>603389521</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6395</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>9759</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>37276</v>
       </c>
       <c r="F15">
@@ -2169,30 +2136,30 @@
       <c r="G15">
         <v>20</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>3</v>
       </c>
       <c r="M15">
         <v>6395</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="4">
         <v>112298261</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4858</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>7852</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>34444</v>
       </c>
       <c r="F16">
@@ -2201,30 +2168,30 @@
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>3</v>
       </c>
       <c r="M16">
         <v>4858</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4">
         <v>259377332</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8514</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>2029</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>37562</v>
       </c>
       <c r="F17">
@@ -2233,30 +2200,30 @@
       <c r="G17">
         <v>50</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>2</v>
       </c>
       <c r="M17">
         <v>8514</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <v>115857502</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4518</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>9759</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>32704</v>
       </c>
       <c r="F18">
@@ -2265,30 +2232,30 @@
       <c r="G18">
         <v>70</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>3</v>
       </c>
       <c r="M18">
         <v>4518</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="4">
         <v>163099662</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3891</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>9759</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>35693</v>
       </c>
       <c r="F19">
@@ -2297,30 +2264,30 @@
       <c r="G19">
         <v>40</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>3</v>
       </c>
       <c r="M19">
         <v>3891</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="4">
         <v>895871755</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2029</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>7852</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>36235</v>
       </c>
       <c r="F20">
@@ -2329,30 +2296,30 @@
       <c r="G20">
         <v>50</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="M20">
         <v>2029</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="4">
         <v>886959630</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7852</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
       </c>
       <c r="D21">
         <v>7852</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>32132</v>
       </c>
       <c r="F21">
@@ -2361,31 +2328,30 @@
       <c r="G21">
         <v>50</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="M21">
         <v>7852</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="4">
         <v>192832309</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M22">
         <v>3245</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="4">
         <v>573202785</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>